--- a/va_facility_data_2025-02-20/Adrian VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Adrian%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Adrian VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Adrian%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R9ecd91670e2a4efc80aa1b08867bd2cf"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R25dfed9eca7b4e4984ad6f1cfcf3ef7a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R093f9f0252304a91bbf06db489edca7c"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rc4d81187bf0d41d6901a2c8e4fec81b6"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc0f6141e832c44b8a9b911148ff9e8f5"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R89039f426eac402381caa1f9d9c4d726"/>
   </x:sheets>
 </x:workbook>
 </file>
